--- a/pred_ohlcv/54_21/2020-01-22 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 ZIL ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>773748.5047781974</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1766407.837707988</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1905981.960307987</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1904044.123407987</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1859233.008007987</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1911210.917907987</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1926319.909307987</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1923720.082807987</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2842880.784307987</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2857729.46599315</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2856544.875393149</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2855152.050593149</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2807152.050593149</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2807152.050593149</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2810489.422393149</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2895582.618193149</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2945582.618193149</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>2825582.618193149</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>2819363.108193149</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>2821002.536293149</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2818570.72559315</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2850207.69559315</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>2880207.69559315</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2845707.69559315</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2704207.69559315</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2734207.69559315</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2739301.939097989</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2675125.939697989</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2817625.939697989</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-22 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 ZIL ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>811104.3164781975</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1766407.837707988</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1905981.960307987</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1904044.123407987</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1859233.008007987</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1911210.917907987</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1926319.909307987</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1923720.082807987</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2842880.784307987</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2851024.106707987</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2845667.801007987</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2862707.07369315</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2857729.46599315</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2856544.875393149</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2855152.050593149</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2807152.050593149</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2810489.422393149</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>2895711.938093149</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2900551.938093149</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2895582.618193149</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2945582.618193149</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>2825582.618193149</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>2819363.108193149</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2739301.939097989</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2675125.939697989</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2817625.939697989</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
